--- a/python/canaraTemplateFormat.xlsx
+++ b/python/canaraTemplateFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University-Results-Extraction-Using-Batch-Processing\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A69056C-D7ED-48D3-8352-6EA730308A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB699407-39BA-4000-9B27-A627E1940192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CEFA1004-1BF1-493B-8C6A-3063BB03AE01}"/>
   </bookViews>
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +208,17 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -325,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,6 +388,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD5CDF9-4BBE-4CDB-954F-E1098E8F59CF}">
   <dimension ref="A1:BC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ7" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:BC1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,63 +838,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
     </row>
     <row r="2" spans="1:55" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -941,63 +954,63 @@
       <c r="BC2" s="1"/>
     </row>
     <row r="3" spans="1:55" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
     </row>
     <row r="4" spans="1:55" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -1057,63 +1070,63 @@
       <c r="BC4" s="3"/>
     </row>
     <row r="5" spans="1:55" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="30"/>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="30"/>
+      <c r="AT5" s="30"/>
+      <c r="AU5" s="30"/>
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="30"/>
+      <c r="AX5" s="30"/>
+      <c r="AY5" s="30"/>
+      <c r="AZ5" s="30"/>
+      <c r="BA5" s="30"/>
+      <c r="BB5" s="30"/>
+      <c r="BC5" s="30"/>
     </row>
     <row r="6" spans="1:55" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
@@ -1169,155 +1182,159 @@
       <c r="AY6" s="15"/>
     </row>
     <row r="7" spans="1:55" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="29"/>
-      <c r="BA7" s="29"/>
-      <c r="BB7" s="29"/>
-      <c r="BC7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="31"/>
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="31"/>
+      <c r="AZ7" s="31"/>
+      <c r="BA7" s="31"/>
+      <c r="BB7" s="31"/>
+      <c r="BC7" s="31"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="21" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="21" t="s">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="21" t="s">
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="21" t="s">
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="21" t="s">
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="21" t="s">
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="21" t="s">
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22"/>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="24" t="s">
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="BA9" s="24" t="s">
+      <c r="BA9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BB9" s="24" t="s">
+      <c r="BB9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="BC9" s="24" t="s">
+      <c r="BC9" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:55" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1462,10 +1479,10 @@
       <c r="AY10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AZ10" s="24"/>
-      <c r="BA10" s="24"/>
-      <c r="BB10" s="24"/>
-      <c r="BC10" s="24"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="26"/>
     </row>
     <row r="11" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
@@ -16176,6 +16193,7 @@
       <c r="C152" s="16"/>
     </row>
     <row r="153" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A153" s="22"/>
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
     </row>
@@ -16186,13 +16204,13 @@
     <row r="155" spans="1:55" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
-      <c r="K155" s="25" t="s">
+      <c r="K155" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L155" s="25"/>
-      <c r="M155" s="25"/>
-      <c r="N155" s="25"/>
-      <c r="O155" s="25"/>
+      <c r="L155" s="27"/>
+      <c r="M155" s="27"/>
+      <c r="N155" s="27"/>
+      <c r="O155" s="27"/>
       <c r="P155" s="19"/>
       <c r="Q155"/>
       <c r="R155"/>
@@ -16214,13 +16232,13 @@
     <row r="156" spans="1:55" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
-      <c r="K156" s="25" t="s">
+      <c r="K156" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L156" s="25"/>
-      <c r="M156" s="25"/>
-      <c r="N156" s="25"/>
-      <c r="O156" s="25"/>
+      <c r="L156" s="27"/>
+      <c r="M156" s="27"/>
+      <c r="N156" s="27"/>
+      <c r="O156" s="27"/>
       <c r="P156"/>
       <c r="Q156"/>
       <c r="R156"/>
@@ -19683,6 +19701,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>